--- a/data/roadway_links.xlsx
+++ b/data/roadway_links.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="226">
   <si>
     <t>81-1001</t>
   </si>
@@ -668,13 +668,40 @@
   </si>
   <si>
     <t>unica</t>
+  </si>
+  <si>
+    <t>17-1011</t>
+  </si>
+  <si>
+    <t>21-1021</t>
+  </si>
+  <si>
+    <t>1-1003</t>
+  </si>
+  <si>
+    <t>1037-1052</t>
+  </si>
+  <si>
+    <t>46-1037</t>
+  </si>
+  <si>
+    <t>49-1023</t>
+  </si>
+  <si>
+    <t>3-1003</t>
+  </si>
+  <si>
+    <t>1-1021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +723,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,18 +753,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2"/>
+    <cellStyle name="Millares 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1025,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,6 +3449,94 @@
         <v>217</v>
       </c>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" s="5">
+        <v>199</v>
+      </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" s="5">
+        <v>120</v>
+      </c>
+      <c r="C217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="5">
+        <v>58</v>
+      </c>
+      <c r="C218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" s="8">
+        <v>56</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" s="8">
+        <v>94</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" s="8">
+        <v>170</v>
+      </c>
+      <c r="C221" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" s="8">
+        <v>45</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" s="8">
+        <v>185</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/roadway_links.xlsx
+++ b/data/roadway_links.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="226">
   <si>
     <t>81-1001</t>
   </si>
@@ -758,7 +758,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -769,6 +769,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2"/>
@@ -1072,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,6 +3541,28 @@
         <v>217</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" s="10">
+        <v>84.8</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B225" s="12">
+        <v>56</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
